--- a/Properties/CP23_X.xlsx
+++ b/Properties/CP23_X.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\DirectFE2\CODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\DirectFE2\CODE\Properties\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F151EE-378C-4A6E-8163-E8E61DAF9DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D91CAA-B7FA-45F6-ABB6-905D8A0E998C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,10 +44,10 @@
     <t>Attached_elements</t>
   </si>
   <si>
-    <t>MACRO-1</t>
+    <t>NT11</t>
   </si>
   <si>
-    <t>TEMP</t>
+    <t>MACRO-1</t>
   </si>
 </sst>
 </file>
@@ -429,12 +429,12 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -443,16 +443,16 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>30.127700000000001</v>
+        <v>29.866599999999998</v>
       </c>
       <c r="F2">
         <f>AVERAGE(D:D)</f>
-        <v>25.380260000000003</v>
+        <v>25.375585000000022</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -461,12 +461,12 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>24.258299999999998</v>
+        <v>24.3947</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -475,12 +475,12 @@
         <v>5</v>
       </c>
       <c r="D4">
-        <v>24.258299999999998</v>
+        <v>24.3947</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -489,12 +489,12 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>25.0852</v>
+        <v>25.047799999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -503,12 +503,12 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>25.0852</v>
+        <v>25.047799999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -517,12 +517,12 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -531,12 +531,12 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -545,12 +545,12 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -559,12 +559,12 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -587,12 +587,12 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>30.124500000000001</v>
+        <v>29.868400000000001</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -601,12 +601,12 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>30.124500000000001</v>
+        <v>29.868400000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14">
         <v>11</v>
@@ -615,12 +615,12 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>24.259399999999999</v>
+        <v>24.395</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -629,12 +629,12 @@
         <v>5</v>
       </c>
       <c r="D15">
-        <v>24.259399999999999</v>
+        <v>24.395</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>11</v>
@@ -643,12 +643,12 @@
         <v>9</v>
       </c>
       <c r="D16">
-        <v>24.259399999999999</v>
+        <v>24.395</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>11</v>
@@ -657,12 +657,12 @@
         <v>10</v>
       </c>
       <c r="D17">
-        <v>24.259399999999999</v>
+        <v>24.395</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18">
         <v>10</v>
@@ -671,12 +671,12 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19">
         <v>10</v>
@@ -685,12 +685,12 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>10</v>
@@ -699,12 +699,12 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21">
         <v>10</v>
@@ -713,12 +713,12 @@
         <v>9</v>
       </c>
       <c r="D21">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22">
         <v>9</v>
@@ -727,12 +727,12 @@
         <v>2</v>
       </c>
       <c r="D22">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23">
         <v>9</v>
@@ -741,12 +741,12 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <v>9</v>
@@ -755,12 +755,12 @@
         <v>7</v>
       </c>
       <c r="D24">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>9</v>
@@ -769,12 +769,12 @@
         <v>8</v>
       </c>
       <c r="D25">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26">
         <v>8</v>
@@ -783,12 +783,12 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B27">
         <v>8</v>
@@ -797,12 +797,12 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -811,12 +811,12 @@
         <v>6</v>
       </c>
       <c r="D28">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B29">
         <v>8</v>
@@ -825,12 +825,12 @@
         <v>7</v>
       </c>
       <c r="D29">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B30">
         <v>7</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31">
         <v>7</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32">
         <v>18</v>
@@ -867,12 +867,12 @@
         <v>10</v>
       </c>
       <c r="D32">
-        <v>30.1248</v>
+        <v>29.868099999999998</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B33">
         <v>18</v>
@@ -881,12 +881,12 @@
         <v>15</v>
       </c>
       <c r="D33">
-        <v>30.1248</v>
+        <v>29.868099999999998</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B34">
         <v>17</v>
@@ -895,12 +895,12 @@
         <v>9</v>
       </c>
       <c r="D34">
-        <v>24.2592</v>
+        <v>24.3949</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B35">
         <v>17</v>
@@ -909,12 +909,12 @@
         <v>10</v>
       </c>
       <c r="D35">
-        <v>24.2592</v>
+        <v>24.3949</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B36">
         <v>17</v>
@@ -923,12 +923,12 @@
         <v>14</v>
       </c>
       <c r="D36">
-        <v>24.2592</v>
+        <v>24.3949</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37">
         <v>17</v>
@@ -937,12 +937,12 @@
         <v>15</v>
       </c>
       <c r="D37">
-        <v>24.2592</v>
+        <v>24.3949</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B38">
         <v>16</v>
@@ -951,12 +951,12 @@
         <v>8</v>
       </c>
       <c r="D38">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B39">
         <v>16</v>
@@ -965,12 +965,12 @@
         <v>9</v>
       </c>
       <c r="D39">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B40">
         <v>16</v>
@@ -979,12 +979,12 @@
         <v>13</v>
       </c>
       <c r="D40">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B41">
         <v>16</v>
@@ -993,12 +993,12 @@
         <v>14</v>
       </c>
       <c r="D41">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B42">
         <v>15</v>
@@ -1007,12 +1007,12 @@
         <v>7</v>
       </c>
       <c r="D42">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43">
         <v>15</v>
@@ -1021,12 +1021,12 @@
         <v>8</v>
       </c>
       <c r="D43">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44">
         <v>15</v>
@@ -1035,12 +1035,12 @@
         <v>12</v>
       </c>
       <c r="D44">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45">
         <v>15</v>
@@ -1049,12 +1049,12 @@
         <v>13</v>
       </c>
       <c r="D45">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>14</v>
@@ -1063,12 +1063,12 @@
         <v>6</v>
       </c>
       <c r="D46">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B47">
         <v>14</v>
@@ -1077,12 +1077,12 @@
         <v>7</v>
       </c>
       <c r="D47">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B48">
         <v>14</v>
@@ -1091,12 +1091,12 @@
         <v>11</v>
       </c>
       <c r="D48">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B49">
         <v>14</v>
@@ -1105,12 +1105,12 @@
         <v>12</v>
       </c>
       <c r="D49">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B50">
         <v>13</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B51">
         <v>13</v>
@@ -1138,7 +1138,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B52">
         <v>24</v>
@@ -1147,12 +1147,12 @@
         <v>15</v>
       </c>
       <c r="D52">
-        <v>30.1248</v>
+        <v>29.868200000000002</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B53">
         <v>24</v>
@@ -1161,12 +1161,12 @@
         <v>20</v>
       </c>
       <c r="D53">
-        <v>30.1248</v>
+        <v>29.868200000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B54">
         <v>23</v>
@@ -1175,12 +1175,12 @@
         <v>14</v>
       </c>
       <c r="D54">
-        <v>24.2593</v>
+        <v>24.395</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B55">
         <v>23</v>
@@ -1189,12 +1189,12 @@
         <v>15</v>
       </c>
       <c r="D55">
-        <v>24.2593</v>
+        <v>24.395</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B56">
         <v>23</v>
@@ -1203,12 +1203,12 @@
         <v>19</v>
       </c>
       <c r="D56">
-        <v>24.2593</v>
+        <v>24.395</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57">
         <v>23</v>
@@ -1217,12 +1217,12 @@
         <v>20</v>
       </c>
       <c r="D57">
-        <v>24.2593</v>
+        <v>24.395</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B58">
         <v>22</v>
@@ -1231,12 +1231,12 @@
         <v>13</v>
       </c>
       <c r="D58">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B59">
         <v>22</v>
@@ -1245,12 +1245,12 @@
         <v>14</v>
       </c>
       <c r="D59">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B60">
         <v>22</v>
@@ -1259,12 +1259,12 @@
         <v>18</v>
       </c>
       <c r="D60">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B61">
         <v>22</v>
@@ -1273,12 +1273,12 @@
         <v>19</v>
       </c>
       <c r="D61">
-        <v>25.084900000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B62">
         <v>21</v>
@@ -1287,12 +1287,12 @@
         <v>12</v>
       </c>
       <c r="D62">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B63">
         <v>21</v>
@@ -1301,12 +1301,12 @@
         <v>13</v>
       </c>
       <c r="D63">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B64">
         <v>21</v>
@@ -1315,12 +1315,12 @@
         <v>17</v>
       </c>
       <c r="D64">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B65">
         <v>21</v>
@@ -1329,12 +1329,12 @@
         <v>18</v>
       </c>
       <c r="D65">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B66">
         <v>20</v>
@@ -1343,12 +1343,12 @@
         <v>11</v>
       </c>
       <c r="D66">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B67">
         <v>20</v>
@@ -1357,12 +1357,12 @@
         <v>12</v>
       </c>
       <c r="D67">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B68">
         <v>20</v>
@@ -1371,12 +1371,12 @@
         <v>16</v>
       </c>
       <c r="D68">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69">
         <v>20</v>
@@ -1385,12 +1385,12 @@
         <v>17</v>
       </c>
       <c r="D69">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <v>19</v>
@@ -1404,7 +1404,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B71">
         <v>19</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B72">
         <v>30</v>
@@ -1427,12 +1427,12 @@
         <v>20</v>
       </c>
       <c r="D72">
-        <v>30.1252</v>
+        <v>29.867899999999999</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B73">
         <v>30</v>
@@ -1441,12 +1441,12 @@
         <v>25</v>
       </c>
       <c r="D73">
-        <v>30.1252</v>
+        <v>29.867899999999999</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B74">
         <v>29</v>
@@ -1455,12 +1455,12 @@
         <v>19</v>
       </c>
       <c r="D74">
-        <v>24.2591</v>
+        <v>24.3949</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B75">
         <v>29</v>
@@ -1469,12 +1469,12 @@
         <v>20</v>
       </c>
       <c r="D75">
-        <v>24.2591</v>
+        <v>24.3949</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76">
         <v>29</v>
@@ -1483,12 +1483,12 @@
         <v>24</v>
       </c>
       <c r="D76">
-        <v>24.2591</v>
+        <v>24.3949</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B77">
         <v>29</v>
@@ -1497,12 +1497,12 @@
         <v>25</v>
       </c>
       <c r="D77">
-        <v>24.2591</v>
+        <v>24.3949</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B78">
         <v>28</v>
@@ -1511,12 +1511,12 @@
         <v>18</v>
       </c>
       <c r="D78">
-        <v>25.085000000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B79">
         <v>28</v>
@@ -1525,12 +1525,12 @@
         <v>19</v>
       </c>
       <c r="D79">
-        <v>25.085000000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B80">
         <v>28</v>
@@ -1539,12 +1539,12 @@
         <v>23</v>
       </c>
       <c r="D80">
-        <v>25.085000000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B81">
         <v>28</v>
@@ -1553,12 +1553,12 @@
         <v>24</v>
       </c>
       <c r="D81">
-        <v>25.085000000000001</v>
+        <v>25.047699999999999</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B82">
         <v>27</v>
@@ -1567,12 +1567,12 @@
         <v>17</v>
       </c>
       <c r="D82">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B83">
         <v>27</v>
@@ -1581,12 +1581,12 @@
         <v>18</v>
       </c>
       <c r="D83">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B84">
         <v>27</v>
@@ -1595,12 +1595,12 @@
         <v>22</v>
       </c>
       <c r="D84">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B85">
         <v>27</v>
@@ -1609,12 +1609,12 @@
         <v>23</v>
       </c>
       <c r="D85">
-        <v>24.996500000000001</v>
+        <v>25.004300000000001</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B86">
         <v>26</v>
@@ -1623,12 +1623,12 @@
         <v>16</v>
       </c>
       <c r="D86">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B87">
         <v>26</v>
@@ -1637,12 +1637,12 @@
         <v>17</v>
       </c>
       <c r="D87">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B88">
         <v>26</v>
@@ -1651,12 +1651,12 @@
         <v>21</v>
       </c>
       <c r="D88">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B89">
         <v>26</v>
@@ -1665,12 +1665,12 @@
         <v>22</v>
       </c>
       <c r="D89">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B90">
         <v>25</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B91">
         <v>25</v>
@@ -1698,7 +1698,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B92">
         <v>36</v>
@@ -1707,12 +1707,12 @@
         <v>25</v>
       </c>
       <c r="D92">
-        <v>30.1219</v>
+        <v>29.869700000000002</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B93">
         <v>35</v>
@@ -1721,12 +1721,12 @@
         <v>24</v>
       </c>
       <c r="D93">
-        <v>24.260200000000001</v>
+        <v>24.395199999999999</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B94">
         <v>35</v>
@@ -1735,12 +1735,12 @@
         <v>25</v>
       </c>
       <c r="D94">
-        <v>24.260200000000001</v>
+        <v>24.395199999999999</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B95">
         <v>34</v>
@@ -1749,12 +1749,12 @@
         <v>23</v>
       </c>
       <c r="D95">
-        <v>25.084700000000002</v>
+        <v>25.047499999999999</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B96">
         <v>34</v>
@@ -1763,12 +1763,12 @@
         <v>24</v>
       </c>
       <c r="D96">
-        <v>25.084700000000002</v>
+        <v>25.047499999999999</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B97">
         <v>33</v>
@@ -1777,12 +1777,12 @@
         <v>22</v>
       </c>
       <c r="D97">
-        <v>24.996600000000001</v>
+        <v>25.0044</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B98">
         <v>33</v>
@@ -1791,12 +1791,12 @@
         <v>23</v>
       </c>
       <c r="D98">
-        <v>24.996600000000001</v>
+        <v>25.0044</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B99">
         <v>32</v>
@@ -1805,12 +1805,12 @@
         <v>21</v>
       </c>
       <c r="D99">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B100">
         <v>32</v>
@@ -1819,12 +1819,12 @@
         <v>22</v>
       </c>
       <c r="D100">
-        <v>24.998200000000001</v>
+        <v>24.9969</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B101">
         <v>31</v>
